--- a/self-driving-nano/projects/3-behavioral-cloning/results/test-plan.xlsx
+++ b/self-driving-nano/projects/3-behavioral-cloning/results/test-plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>TEST</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Turns Completed</t>
   </si>
   <si>
-    <t>LOSS</t>
-  </si>
-  <si>
-    <t>ACC</t>
-  </si>
-  <si>
     <t>EPOCHS</t>
   </si>
   <si>
@@ -104,13 +98,37 @@
     <t>center cam only</t>
   </si>
   <si>
-    <t xml:space="preserve"> + reduce straight angle bias</t>
-  </si>
-  <si>
     <t xml:space="preserve"> + add left and right cams</t>
   </si>
   <si>
     <t xml:space="preserve"> + flip horizontally </t>
+  </si>
+  <si>
+    <t>ipynb</t>
+  </si>
+  <si>
+    <t>v5c</t>
+  </si>
+  <si>
+    <t>VAL ACC</t>
+  </si>
+  <si>
+    <t>VAL LOSS</t>
+  </si>
+  <si>
+    <t>TRAIN LOSS</t>
+  </si>
+  <si>
+    <t>TRAIN ACC</t>
+  </si>
+  <si>
+    <t>v6</t>
+  </si>
+  <si>
+    <t>v7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + reduce straight angle bias ??</t>
   </si>
 </sst>
 </file>
@@ -175,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -186,6 +204,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -196,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -480,312 +507,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="21.83203125" customWidth="1"/>
-    <col min="9" max="11" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="11.5" style="6" customWidth="1"/>
+    <col min="12" max="14" width="16.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="10" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.54139999999999999</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.53910000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="D16" s="10">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="19" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="21" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/self-driving-nano/projects/3-behavioral-cloning/results/test-plan.xlsx
+++ b/self-driving-nano/projects/3-behavioral-cloning/results/test-plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>TEST</t>
   </si>
@@ -125,10 +125,13 @@
     <t>v6</t>
   </si>
   <si>
-    <t>v7</t>
-  </si>
-  <si>
     <t xml:space="preserve"> + reduce straight angle bias ??</t>
+  </si>
+  <si>
+    <t>v7c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + recovery data</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -676,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -687,24 +690,30 @@
       <c r="F7" t="s">
         <v>24</v>
       </c>
+      <c r="G7" s="6">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.1817</v>
+      </c>
+      <c r="J7" s="6">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.1736</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -713,12 +722,12 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -727,12 +736,12 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -741,12 +750,12 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -755,48 +764,51 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -804,10 +816,7 @@
     </row>
     <row r="17" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D17" s="10">
         <v>2</v>
@@ -818,25 +827,38 @@
     </row>
     <row r="18" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -849,6 +871,7 @@
     <row r="32" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="L1:N1"/>

--- a/self-driving-nano/projects/3-behavioral-cloning/results/test-plan.xlsx
+++ b/self-driving-nano/projects/3-behavioral-cloning/results/test-plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>TEST</t>
   </si>
@@ -74,9 +74,6 @@
     <t xml:space="preserve"> + crop</t>
   </si>
   <si>
-    <t xml:space="preserve"> + equal distribution</t>
-  </si>
-  <si>
     <t xml:space="preserve"> + affine transforms (brightness, color, HSA)</t>
   </si>
   <si>
@@ -131,14 +128,35 @@
     <t>v7c</t>
   </si>
   <si>
-    <t xml:space="preserve"> + recovery data</t>
+    <t>v8b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + update steering logic</t>
+  </si>
+  <si>
+    <t>loss: 0.0553 - acc: 0.4157 - val_loss: 0.0519 - val_acc: 0.4258</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + opp direction, drift, recovery, shadows</t>
+  </si>
+  <si>
+    <t>v9c</t>
+  </si>
+  <si>
+    <t>v10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + equal distribution?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + smoothing </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +171,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
     </font>
   </fonts>
   <fills count="4">
@@ -196,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -233,6 +256,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -570,16 +594,16 @@
         <v>7</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>4</v>
@@ -605,7 +629,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -613,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -625,7 +649,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="6">
         <v>10</v>
@@ -662,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -671,7 +695,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -679,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -688,7 +712,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="6">
         <v>5</v>
@@ -706,14 +730,26 @@
         <v>0.1736</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
+      <c r="G8" s="6">
+        <v>10</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -722,26 +758,23 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>7</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
+      <c r="B10" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -750,12 +783,12 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -764,103 +797,120 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>10</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D18" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -872,6 +922,8 @@
     <row r="33" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="L1:N1"/>

--- a/self-driving-nano/projects/3-behavioral-cloning/results/test-plan.xlsx
+++ b/self-driving-nano/projects/3-behavioral-cloning/results/test-plan.xlsx
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
-  <si>
-    <t>TEST</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>MODEL</t>
   </si>
@@ -44,12 +41,6 @@
     <t>Max MPH</t>
   </si>
   <si>
-    <t>Laps Completed</t>
-  </si>
-  <si>
-    <t>Turns Completed</t>
-  </si>
-  <si>
     <t>EPOCHS</t>
   </si>
   <si>
@@ -74,24 +65,12 @@
     <t xml:space="preserve"> + crop</t>
   </si>
   <si>
-    <t xml:space="preserve"> + affine transforms (brightness, color, HSA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + affine transforms (rot, shift, shear)</t>
+    <t xml:space="preserve"> + equal distribution</t>
   </si>
   <si>
     <t xml:space="preserve"> + shadows</t>
   </si>
   <si>
-    <t>Self-generated</t>
-  </si>
-  <si>
-    <t>Combined</t>
-  </si>
-  <si>
-    <t>different model?</t>
-  </si>
-  <si>
     <t>center cam only</t>
   </si>
   <si>
@@ -122,9 +101,6 @@
     <t>v6</t>
   </si>
   <si>
-    <t xml:space="preserve"> + reduce straight angle bias ??</t>
-  </si>
-  <si>
     <t>v7c</t>
   </si>
   <si>
@@ -137,26 +113,184 @@
     <t>loss: 0.0553 - acc: 0.4157 - val_loss: 0.0519 - val_acc: 0.4258</t>
   </si>
   <si>
-    <t xml:space="preserve"> + opp direction, drift, recovery, shadows</t>
-  </si>
-  <si>
-    <t>v9c</t>
-  </si>
-  <si>
     <t>v10</t>
   </si>
   <si>
-    <t xml:space="preserve"> + equal distribution?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + smoothing </t>
+    <t>loss: 0.0370 - acc: 0.4150 - val_loss: 0.0320 - val_acc: 0.4531</t>
+  </si>
+  <si>
+    <t>v9d</t>
+  </si>
+  <si>
+    <t>v9e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + steer_thresh=0.15 , 2x images</t>
+  </si>
+  <si>
+    <t>loss: 0.0482 - acc: 0.4556 - val_loss: 0.0415 - val_acc: 0.4612</t>
+  </si>
+  <si>
+    <t>loss: 0.0537 - acc: 0.4620 - val_loss: 0.0456 - val_acc: 0.4573</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + opp direction, drift, recovery, shadows
+    steer_thresh=0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + transforms (rot, shift, shear, color)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + affine transforms (brightness)</t>
+  </si>
+  <si>
+    <t>v10b</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>v11</t>
+  </si>
+  <si>
+    <t>1+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + reduce straight steer proportion</t>
+  </si>
+  <si>
+    <t>v12</t>
+  </si>
+  <si>
+    <t>loss: 0.1515 - acc: 0.1887 - val_loss: 0.1386 - val_acc: 0.1829</t>
+  </si>
+  <si>
+    <t>v13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + sharp turn data</t>
+  </si>
+  <si>
+    <t>Track 1</t>
+  </si>
+  <si>
+    <t>Track 2</t>
+  </si>
+  <si>
+    <t>Lap</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>loss: 0.1579 - acc: 0.2319 - val_loss: 0.1502 - val_acc: 0.2515</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> self data only</t>
+  </si>
+  <si>
+    <t>v14</t>
+  </si>
+  <si>
+    <t>loss: 0.1748 - acc: 0.2791 - val_loss: 0.1583 - val_acc: 0.2938</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trained self first then udacity</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>loss: 0.0398 - acc: 0.0864 - val_loss: 0.0307 - val_acc: 0.0768</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 + 17</t>
+  </si>
+  <si>
+    <t>v15</t>
+  </si>
+  <si>
+    <t>loss: 0.1197 - acc: 0.3527 - val_loss: 0.1204 - val_acc: 0.3478</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> track 2 data only,  + horizon shift</t>
+  </si>
+  <si>
+    <t>v16</t>
+  </si>
+  <si>
+    <t>v17</t>
+  </si>
+  <si>
+    <t>v18</t>
+  </si>
+  <si>
+    <t>v19</t>
+  </si>
+  <si>
+    <t>image resizing</t>
+  </si>
+  <si>
+    <t>loss: 0.1777 - acc: 0.0466 - val_loss: 0.1730 - val_acc: 0.0343</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>comma.ai</t>
+  </si>
+  <si>
+    <t>loss: 0.15</t>
+  </si>
+  <si>
+    <t>loss: 0.1392 - acc: 0.0350 - val_loss: 0.1082 - val_acc: 0.0338</t>
+  </si>
+  <si>
+    <t>NVIDIA v1</t>
+  </si>
+  <si>
+    <t>loss: 0.1459 - acc: 0.0442 - val_loss: 0.1208 - val_acc: 0.0362</t>
+  </si>
+  <si>
+    <t>increase steer adj from 0.2 to 0.27
+further eq distrib (fact from 0.5 to 0.2)</t>
+  </si>
+  <si>
+    <t>bi-lateral filtering (image smoothing),
+move flip to pre-process
+eq set to 0.1 and 0.5
+steer adj set to random (0.23, 0.28)</t>
+  </si>
+  <si>
+    <t>loss: 0.1008 - acc: 0.0469 - val_loss: 0.0863 - val_acc: 0.0493</t>
+  </si>
+  <si>
+    <t>v20b</t>
+  </si>
+  <si>
+    <t>v21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + more track 1 data, more norm eq dist</t>
+  </si>
+  <si>
+    <t>loss: 0.1039 - acc: 0.0524 - val_loss: 0.0941 - val_acc: 0.0526</t>
+  </si>
+  <si>
+    <t>v32b</t>
+  </si>
+  <si>
+    <t>30MPH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +310,22 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -216,10 +366,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,15 +402,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,401 +697,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="11.5" style="6" customWidth="1"/>
-    <col min="12" max="14" width="16.33203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="4" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="13"/>
+      <c r="E1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="H3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.54139999999999999</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.53910000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="G5" s="6">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.54139999999999999</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.53910000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.1817</v>
+      </c>
+      <c r="J8" s="6">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.1736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6">
+        <v>10</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6">
-        <v>5</v>
-      </c>
-      <c r="H7" s="6">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.1817</v>
-      </c>
-      <c r="J7" s="6">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.1736</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="6">
-        <v>10</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
-        <v>38</v>
+      <c r="D10" s="10">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
+      <c r="G10" s="6">
+        <v>10</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="6">
+        <v>5</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="L14" s="6">
+        <v>30</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="6">
+        <v>25</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="6">
+        <v>5</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="6">
+        <v>14</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>9</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="H17" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>6</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>11</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>12</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>13</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>14</v>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
       </c>
       <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="6">
+        <v>15</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="6">
+        <v>3</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="10">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="H23" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="B24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="65" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="6">
+        <v>54</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="6">
+        <v>46</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>